--- a/BackTest/2020-01-13 BackTest CON.xlsx
+++ b/BackTest/2020-01-13 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>27493739.95752336</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>27421992.01252336</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>27425878.92092336</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>27519181.06902336</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>27351272.71962336</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>27009686.86552336</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>27088283.42052336</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>27545384.46037135</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>27123779.19167135</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>27164892.93767134</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>27174892.93767134</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>27069899.41237134</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>27398751.29907135</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>26462227.01587134</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>26462227.01587134</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>26544961.43087134</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>26527660.13417134</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>26378817.47917134</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>26811941.92707134</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>26887194.17707134</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>26837677.88697134</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>26770595.47697134</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>26650447.87697134</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>26710341.06197134</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>26584686.69697134</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>26305920.23367134</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>26306080.23367134</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>26621105.79007134</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>26621265.79007134</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>26575709.82507134</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>26631938.70507134</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>26581376.59007134</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>26545468.84317134</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>27096232.92977134</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>27096232.92977134</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>27129252.90477134</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>27036674.79977134</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>27039074.79977134</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>26872015.21977134</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>26534071.18787134</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>25419462.66797134</v>
       </c>
       <c r="H181" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>25538096.30627134</v>
       </c>
       <c r="H183" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>25494542.80127134</v>
       </c>
       <c r="H184" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>25494941.80127134</v>
       </c>
       <c r="H185" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>25367134.97627134</v>
       </c>
       <c r="H186" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>25367274.97627134</v>
       </c>
       <c r="H187" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>25331230.69627134</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>25271275.96457134</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>25195683.09957134</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>25264767.96957134</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>24927095.97437134</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>24975655.62937134</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>25647222.33301565</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>25627710.64801564</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>25661752.46801564</v>
       </c>
       <c r="H347" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>25593668.82801564</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>25558625.77801564</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>25513602.46701564</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>25513602.46701564</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>25587693.48701564</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>25513101.85201564</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>25466544.65701564</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>25466544.65701564</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>25542838.13701564</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>25542838.13701564</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>25467745.88701564</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>25467745.88701564</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>25532325.22201564</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>25860024.03751564</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>25643323.37301564</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>25639770.28631564</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>25699743.47131564</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>25528367.36901564</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>25601156.54401564</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>25600756.54401564</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>25457363.67131564</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>25514161.99271564</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>25468606.02771564</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>25575237.02271564</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>25575387.02271564</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>25497291.08271564</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>25550856.88771564</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>25426475.88751564</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>24857867.27851564</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>25097202.63361564</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>25034125.14361564</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>25021882.53421564</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>25021882.53421564</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>24869618.57421564</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>24859237.89051564</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>24809677.00551564</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>24809677.00551564</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>24902422.65341564</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>24902691.65341564</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>24833106.16841564</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>24833340.16841564</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>24784580.51341564</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>24932387.10341564</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>25017593.65841564</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>25056440.39841564</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>25126526.49841564</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>25046928.71341564</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>24981355.83571564</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>24898983.98071564</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>24895709.29571564</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>25035161.96511564</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>25015566.66451564</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>24944479.33451564</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>25001048.82951564</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>24465613.89051564</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>25949055.54491564</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>25862094.16201564</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>26001837.69501564</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>26679057.00245716</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>26875558.82625716</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>27118839.24390623</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>27049204.99406127</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>26611897.43466127</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>26676197.47026127</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>26695677.47816127</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>26695677.47816127</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>26635603.67816127</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>26685665.17816127</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>26638607.36816127</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>26521931.27816127</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>26607035.82816127</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>26607174.82816127</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>26548313.26726127</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>26662367.04986127</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>26514984.93856128</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>26592079.64856128</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>26540516.30356128</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>26402868.35806128</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>26473089.68586127</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>26384397.94206128</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>26311308.15206128</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>26375253.83756128</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>26421310.41756127</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14806,7 +14806,7 @@
         <v>26484678.36776127</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>26520682.83486127</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14872,7 +14872,7 @@
         <v>26551720.96486127</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>26424639.38356127</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>26475702.11356127</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>26435652.91356127</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>26488361.30106127</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>26421779.50606127</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>26356187.40006126</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>26460115.32006126</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>26351982.48006126</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>26262411.75506126</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>26282297.40226126</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>26281432.33926126</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>26338534.17056126</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>26285969.59556126</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>26348309.70780401</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>26314267.88780401</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>26383670.789104</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>26383670.789104</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>26464710.70736126</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>26465557.02316126</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>26465557.02316126</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>23745225.40316126</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>23819316.42316126</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>23743225.54341851</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>23602279.23561851</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>23572961.51721851</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>23463024.70331851</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>23436220.14801851</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>23158151.05841851</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>23025510.14051851</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>22670806.29461851</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>22706302.93901851</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>22336742.44741851</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>22401321.78241851</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>22340377.17331851</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>22405135.09421851</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>22351532.26961851</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>22424121.44461851</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>22403263.63061851</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>22469344.81061851</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>22415278.39061851</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>22443061.47221851</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>22588949.03461851</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>22645017.91461851</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>22594455.79961851</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>22436952.02261851</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>22515047.96261851</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>22461482.15761851</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>22428093.13961851</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>22549633.60021851</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>22486556.11021851</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>22604200.63521851</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>22653961.52021851</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>22654561.52021851</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>22612509.86021851</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>22612509.86021851</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>22542924.37521851</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>23028658.96751852</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>23029083.42781851</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>22996042.83781851</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>22945981.33781851</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>22984028.07781851</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>22913941.97781851</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>22627188.27441851</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>22688763.91941851</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>22570618.77941851</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>22570618.77941851</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>22700713.90141851</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>22675986.60891851</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>22735384.34511851</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>22806972.29011851</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>22706820.72071851</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>22462596.77401851</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>22519666.88401851</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>20437211.37151851</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>19695085.98231851</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>19928071.66921851</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -27445,10 +27445,14 @@
         <v>20798969.15381849</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J820" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
@@ -27478,11 +27482,19 @@
         <v>20858969.15381849</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="J821" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27511,11 +27523,19 @@
         <v>20858969.15381849</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J822" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27544,10 +27564,14 @@
         <v>20885281.73221849</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="J823" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
@@ -27577,173 +27601,179 @@
         <v>19499088.19211849</v>
       </c>
       <c r="H824" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I824" t="n">
         <v>3.55</v>
       </c>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>3.54</v>
+      </c>
       <c r="K824" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L824" t="n">
+        <v>1</v>
+      </c>
+      <c r="M824" t="inlineStr"/>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>823</v>
+      </c>
+      <c r="B825" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="C825" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="D825" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="E825" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F825" t="n">
+        <v>5043.6348</v>
+      </c>
+      <c r="G825" t="n">
+        <v>19504131.82691849</v>
+      </c>
+      <c r="H825" t="n">
+        <v>1</v>
+      </c>
+      <c r="I825" t="n">
+        <v>3.541</v>
+      </c>
+      <c r="J825" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L825" t="n">
+        <v>1</v>
+      </c>
+      <c r="M825" t="inlineStr"/>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>824</v>
+      </c>
+      <c r="B826" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="C826" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="D826" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="E826" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="F826" t="n">
+        <v>1908.6853</v>
+      </c>
+      <c r="G826" t="n">
+        <v>19502223.14161849</v>
+      </c>
+      <c r="H826" t="n">
+        <v>1</v>
+      </c>
+      <c r="I826" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="J826" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K826" t="inlineStr"/>
+      <c r="L826" t="n">
+        <v>1</v>
+      </c>
+      <c r="M826" t="inlineStr"/>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>825</v>
+      </c>
+      <c r="B827" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="C827" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="D827" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="E827" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="F827" t="n">
+        <v>91.3147</v>
+      </c>
+      <c r="G827" t="n">
+        <v>19502223.14161849</v>
+      </c>
+      <c r="H827" t="n">
+        <v>1</v>
+      </c>
+      <c r="I827" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="J827" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L827" t="n">
+        <v>1</v>
+      </c>
+      <c r="M827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="C828" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="D828" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="E828" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="F828" t="n">
+        <v>1240311.3789</v>
+      </c>
+      <c r="G828" t="n">
+        <v>20742534.52051849</v>
+      </c>
+      <c r="H828" t="n">
+        <v>1</v>
+      </c>
+      <c r="I828" t="n">
+        <v>3.544</v>
+      </c>
+      <c r="J828" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K828" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L824" t="n">
-        <v>1</v>
-      </c>
-      <c r="M824" t="inlineStr"/>
-    </row>
-    <row r="825">
-      <c r="A825" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="B825" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="C825" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="D825" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="E825" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="F825" t="n">
-        <v>5043.6348</v>
-      </c>
-      <c r="G825" t="n">
-        <v>19504131.82691849</v>
-      </c>
-      <c r="H825" t="n">
-        <v>2</v>
-      </c>
-      <c r="I825" t="n">
-        <v>3.541</v>
-      </c>
-      <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L825" t="n">
-        <v>1</v>
-      </c>
-      <c r="M825" t="inlineStr"/>
-    </row>
-    <row r="826">
-      <c r="A826" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="B826" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="C826" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="D826" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="E826" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="F826" t="n">
-        <v>1908.6853</v>
-      </c>
-      <c r="G826" t="n">
-        <v>19502223.14161849</v>
-      </c>
-      <c r="H826" t="n">
-        <v>2</v>
-      </c>
-      <c r="I826" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L826" t="n">
-        <v>1</v>
-      </c>
-      <c r="M826" t="inlineStr"/>
-    </row>
-    <row r="827">
-      <c r="A827" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B827" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="C827" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="D827" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="E827" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="F827" t="n">
-        <v>91.3147</v>
-      </c>
-      <c r="G827" t="n">
-        <v>19502223.14161849</v>
-      </c>
-      <c r="H827" t="n">
-        <v>2</v>
-      </c>
-      <c r="I827" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L827" t="n">
-        <v>1</v>
-      </c>
-      <c r="M827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
-        <v>3.546</v>
-      </c>
-      <c r="C828" t="n">
-        <v>3.545</v>
-      </c>
-      <c r="D828" t="n">
-        <v>3.546</v>
-      </c>
-      <c r="E828" t="n">
-        <v>3.545</v>
-      </c>
-      <c r="F828" t="n">
-        <v>1240311.3789</v>
-      </c>
-      <c r="G828" t="n">
-        <v>20742534.52051849</v>
-      </c>
-      <c r="H828" t="n">
-        <v>2</v>
-      </c>
-      <c r="I828" t="n">
-        <v>3.544</v>
-      </c>
-      <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27772,12 +27802,14 @@
         <v>20783325.28101849</v>
       </c>
       <c r="H829" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I829" t="n">
         <v>3.545</v>
       </c>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27811,12 +27843,14 @@
         <v>20783325.28101849</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I830" t="n">
         <v>3.569</v>
       </c>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27850,12 +27884,14 @@
         <v>20260347.89461849</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I831" t="n">
         <v>3.569</v>
       </c>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27889,10 +27925,14 @@
         <v>20301280.43991849</v>
       </c>
       <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I832" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="J832" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27926,12 +27966,14 @@
         <v>20301280.43991849</v>
       </c>
       <c r="H833" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I833" t="n">
         <v>3.569</v>
       </c>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27965,12 +28007,14 @@
         <v>20301280.43991849</v>
       </c>
       <c r="H834" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I834" t="n">
         <v>3.569</v>
       </c>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28004,12 +28048,14 @@
         <v>20212142.30451849</v>
       </c>
       <c r="H835" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I835" t="n">
         <v>3.569</v>
       </c>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28043,12 +28089,14 @@
         <v>19524581.35061849</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I836" t="n">
         <v>3.552</v>
       </c>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28082,12 +28130,14 @@
         <v>19545046.52651849</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I837" t="n">
         <v>3.551</v>
       </c>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28121,12 +28171,14 @@
         <v>19545046.52651849</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I838" t="n">
         <v>3.552</v>
       </c>
-      <c r="J838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28160,12 +28212,14 @@
         <v>19545046.52651849</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I839" t="n">
         <v>3.552</v>
       </c>
-      <c r="J839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28199,12 +28253,14 @@
         <v>19545046.52651849</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I840" t="n">
         <v>3.552</v>
       </c>
-      <c r="J840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28238,12 +28294,14 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I841" t="n">
         <v>3.552</v>
       </c>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28277,12 +28335,14 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I842" t="n">
         <v>3.553</v>
       </c>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28316,12 +28376,14 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H843" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I843" t="n">
         <v>3.553</v>
       </c>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28355,12 +28417,14 @@
         <v>19662231.15681849</v>
       </c>
       <c r="H844" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I844" t="n">
         <v>3.553</v>
       </c>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28394,12 +28458,14 @@
         <v>19817036.61221849</v>
       </c>
       <c r="H845" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I845" t="n">
         <v>3.546</v>
       </c>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28433,12 +28499,14 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H846" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I846" t="n">
         <v>3.56</v>
       </c>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28472,10 +28540,14 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J847" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28509,12 +28581,14 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I848" t="n">
         <v>3.57</v>
       </c>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28548,10 +28622,14 @@
         <v>19863613.21721849</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="J849" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28585,10 +28663,14 @@
         <v>19807544.33721849</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>3.578</v>
+      </c>
+      <c r="J850" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28622,10 +28704,14 @@
         <v>19756982.22221849</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>3.573</v>
+      </c>
+      <c r="J851" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28659,10 +28745,14 @@
         <v>19888643.9672185</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>3.571</v>
+      </c>
+      <c r="J852" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28696,10 +28786,14 @@
         <v>19888643.9672185</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="J853" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28736,7 +28830,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28773,7 +28869,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28810,7 +28908,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28847,7 +28947,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28884,7 +28986,9 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28921,7 +29025,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28958,7 +29064,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28992,10 +29100,14 @@
         <v>19939206.08221849</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>3.572</v>
+      </c>
+      <c r="J861" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29029,10 +29141,14 @@
         <v>20021431.09521849</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>3.573</v>
+      </c>
+      <c r="J862" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29066,10 +29182,14 @@
         <v>19971369.59521849</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>3.575</v>
+      </c>
+      <c r="J863" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29103,12 +29223,14 @@
         <v>20009416.33521849</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I864" t="n">
         <v>3.572</v>
       </c>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29142,12 +29264,14 @@
         <v>19939330.23521849</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I865" t="n">
         <v>3.577</v>
       </c>
-      <c r="J865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29181,12 +29305,14 @@
         <v>20018928.02021849</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I866" t="n">
         <v>3.573</v>
       </c>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29220,12 +29346,14 @@
         <v>19957352.37521849</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I867" t="n">
         <v>3.576</v>
       </c>
-      <c r="J867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29259,12 +29387,14 @@
         <v>20036449.54521849</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I868" t="n">
         <v>3.571</v>
       </c>
-      <c r="J868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29298,12 +29428,14 @@
         <v>20076006.22661849</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I869" t="n">
         <v>3.573</v>
       </c>
-      <c r="J869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29337,12 +29469,14 @@
         <v>20004918.8966185</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I870" t="n">
         <v>3.578</v>
       </c>
-      <c r="J870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29376,12 +29510,14 @@
         <v>19948349.4016185</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I871" t="n">
         <v>3.572</v>
       </c>
-      <c r="J871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29415,12 +29551,14 @@
         <v>19948349.4016185</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I872" t="n">
         <v>3.571</v>
       </c>
-      <c r="J872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29454,12 +29592,14 @@
         <v>19988899.2166185</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I873" t="n">
         <v>3.571</v>
       </c>
-      <c r="J873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29493,12 +29633,14 @@
         <v>19917311.2716185</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I874" t="n">
         <v>3.576</v>
       </c>
-      <c r="J874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29532,12 +29674,14 @@
         <v>19959863.5466185</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I875" t="n">
         <v>3.571</v>
       </c>
-      <c r="J875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29571,12 +29715,14 @@
         <v>19268132.04571849</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I876" t="n">
         <v>3.573</v>
       </c>
-      <c r="J876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29610,12 +29756,14 @@
         <v>19305061.41271849</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I877" t="n">
         <v>3.541</v>
       </c>
-      <c r="J877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29649,12 +29797,14 @@
         <v>19261507.90771849</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I878" t="n">
         <v>3.568</v>
       </c>
-      <c r="J878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29688,12 +29838,14 @@
         <v>19332543.5033185</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I879" t="n">
         <v>3.567</v>
       </c>
-      <c r="J879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29727,10 +29879,14 @@
         <v>19275473.3933185</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
-      </c>
-      <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I880" t="n">
+        <v>3.568</v>
+      </c>
+      <c r="J880" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29764,12 +29920,14 @@
         <v>19311517.6733185</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I881" t="n">
         <v>3.547</v>
       </c>
-      <c r="J881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29803,12 +29961,14 @@
         <v>19235924.8083185</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I882" t="n">
         <v>3.554</v>
       </c>
-      <c r="J882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29842,12 +30002,14 @@
         <v>19382605.0033185</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I883" t="n">
         <v>3.552</v>
       </c>
-      <c r="J883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29881,12 +30043,14 @@
         <v>19427523.3642185</v>
       </c>
       <c r="H884" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I884" t="n">
         <v>3.557</v>
       </c>
-      <c r="J884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29920,12 +30084,14 @@
         <v>19372956.3292185</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I885" t="n">
         <v>3.564</v>
       </c>
-      <c r="J885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29959,12 +30125,14 @@
         <v>19312882.5292185</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I886" t="n">
         <v>3.559</v>
       </c>
-      <c r="J886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29998,12 +30166,14 @@
         <v>19409000.6092185</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I887" t="n">
         <v>3.557</v>
       </c>
-      <c r="J887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30037,12 +30207,14 @@
         <v>19371454.4842185</v>
       </c>
       <c r="H888" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I888" t="n">
         <v>3.566</v>
       </c>
-      <c r="J888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30076,12 +30248,14 @@
         <v>19419012.9092185</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I889" t="n">
         <v>3.556</v>
       </c>
-      <c r="J889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30115,12 +30289,14 @@
         <v>19360440.9542185</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I890" t="n">
         <v>3.561</v>
       </c>
-      <c r="J890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30154,12 +30330,14 @@
         <v>19424519.6742185</v>
       </c>
       <c r="H891" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I891" t="n">
         <v>3.548</v>
       </c>
-      <c r="J891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30193,12 +30371,14 @@
         <v>19385972.3192185</v>
       </c>
       <c r="H892" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I892" t="n">
         <v>3.56</v>
       </c>
-      <c r="J892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30232,12 +30412,14 @@
         <v>19386957.5292185</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I893" t="n">
         <v>3.555</v>
       </c>
-      <c r="J893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30271,12 +30453,14 @@
         <v>19309862.8192185</v>
       </c>
       <c r="H894" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I894" t="n">
         <v>3.568</v>
       </c>
-      <c r="J894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30310,12 +30494,14 @@
         <v>19258299.4742185</v>
       </c>
       <c r="H895" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I895" t="n">
         <v>3.546</v>
       </c>
-      <c r="J895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30349,12 +30535,14 @@
         <v>19331889.8792185</v>
       </c>
       <c r="H896" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I896" t="n">
         <v>3.542</v>
       </c>
-      <c r="J896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30388,12 +30576,14 @@
         <v>19331889.8792185</v>
       </c>
       <c r="H897" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I897" t="n">
         <v>3.56</v>
       </c>
-      <c r="J897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30427,12 +30617,14 @@
         <v>19266809.9292185</v>
       </c>
       <c r="H898" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I898" t="n">
         <v>3.56</v>
       </c>
-      <c r="J898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30466,12 +30658,14 @@
         <v>19339899.7192185</v>
       </c>
       <c r="H899" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I899" t="n">
         <v>3.542</v>
       </c>
-      <c r="J899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30505,12 +30699,14 @@
         <v>19398972.2892185</v>
       </c>
       <c r="H900" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I900" t="n">
         <v>3.552</v>
       </c>
-      <c r="J900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30544,12 +30740,14 @@
         <v>19398972.2892185</v>
       </c>
       <c r="H901" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I901" t="n">
         <v>3.564</v>
       </c>
-      <c r="J901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30583,12 +30781,14 @@
         <v>19340900.9492185</v>
       </c>
       <c r="H902" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I902" t="n">
         <v>3.564</v>
       </c>
-      <c r="J902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30622,12 +30822,14 @@
         <v>19308861.5892185</v>
       </c>
       <c r="H903" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I903" t="n">
         <v>3.561</v>
       </c>
-      <c r="J903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30661,12 +30863,14 @@
         <v>19277297.8242185</v>
       </c>
       <c r="H904" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I904" t="n">
         <v>3.56</v>
       </c>
-      <c r="J904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30700,12 +30904,14 @@
         <v>19332365.4742185</v>
       </c>
       <c r="H905" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I905" t="n">
         <v>3.557</v>
       </c>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30739,12 +30945,14 @@
         <v>19399948.4992185</v>
       </c>
       <c r="H906" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I906" t="n">
         <v>3.558</v>
       </c>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30778,12 +30986,14 @@
         <v>19348885.7692185</v>
       </c>
       <c r="H907" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I907" t="n">
         <v>3.563</v>
       </c>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30817,12 +31027,14 @@
         <v>19388934.9692185</v>
       </c>
       <c r="H908" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I908" t="n">
         <v>3.556</v>
       </c>
-      <c r="J908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30856,12 +31068,14 @@
         <v>19322353.17421849</v>
       </c>
       <c r="H909" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I909" t="n">
         <v>3.562</v>
       </c>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30895,12 +31109,14 @@
         <v>19352890.6892185</v>
       </c>
       <c r="H910" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I910" t="n">
         <v>3.558</v>
       </c>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30934,12 +31150,14 @@
         <v>19319349.4842185</v>
       </c>
       <c r="H911" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I911" t="n">
         <v>3.564</v>
       </c>
-      <c r="J911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30973,12 +31191,14 @@
         <v>19354789.0212185</v>
       </c>
       <c r="H912" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I912" t="n">
         <v>3.563</v>
       </c>
-      <c r="J912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31012,12 +31232,14 @@
         <v>19354789.0212185</v>
       </c>
       <c r="H913" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I913" t="n">
         <v>3.565</v>
       </c>
-      <c r="J913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31051,12 +31273,14 @@
         <v>19354789.0212185</v>
       </c>
       <c r="H914" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I914" t="n">
         <v>3.565</v>
       </c>
-      <c r="J914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31090,12 +31314,14 @@
         <v>19354789.0212185</v>
       </c>
       <c r="H915" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I915" t="n">
         <v>3.565</v>
       </c>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31129,12 +31355,14 @@
         <v>19282700.4612185</v>
       </c>
       <c r="H916" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I916" t="n">
         <v>3.565</v>
       </c>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31168,12 +31396,14 @@
         <v>19435677.9995185</v>
       </c>
       <c r="H917" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I917" t="n">
         <v>3.563</v>
       </c>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31207,12 +31437,14 @@
         <v>19429203.1308185</v>
       </c>
       <c r="H918" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I918" t="n">
         <v>3.576</v>
       </c>
-      <c r="J918" t="inlineStr"/>
+      <c r="J918" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K918" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31246,12 +31478,14 @@
         <v>19507799.6858185</v>
       </c>
       <c r="H919" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I919" t="n">
         <v>3.565</v>
       </c>
-      <c r="J919" t="inlineStr"/>
+      <c r="J919" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K919" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31285,12 +31519,14 @@
         <v>19601202.4713185</v>
       </c>
       <c r="H920" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I920" t="n">
         <v>3.577</v>
       </c>
-      <c r="J920" t="inlineStr"/>
+      <c r="J920" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K920" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31324,12 +31560,14 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H921" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I921" t="n">
         <v>3.578</v>
       </c>
-      <c r="J921" t="inlineStr"/>
+      <c r="J921" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K921" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31363,12 +31601,14 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H922" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I922" t="n">
         <v>3.579</v>
       </c>
-      <c r="J922" t="inlineStr"/>
+      <c r="J922" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K922" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31402,12 +31642,14 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H923" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I923" t="n">
         <v>3.579</v>
       </c>
-      <c r="J923" t="inlineStr"/>
+      <c r="J923" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K923" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31441,10 +31683,14 @@
         <v>19846698.6632185</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
-      <c r="J924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>3.579</v>
+      </c>
+      <c r="J924" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K924" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31478,10 +31724,14 @@
         <v>19891754.0132185</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
-      <c r="J925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>3.628</v>
+      </c>
+      <c r="J925" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K925" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31518,7 +31768,9 @@
         <v>0</v>
       </c>
       <c r="I926" t="inlineStr"/>
-      <c r="J926" t="inlineStr"/>
+      <c r="J926" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K926" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31555,7 +31807,9 @@
         <v>0</v>
       </c>
       <c r="I927" t="inlineStr"/>
-      <c r="J927" t="inlineStr"/>
+      <c r="J927" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K927" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31592,7 +31846,9 @@
         <v>0</v>
       </c>
       <c r="I928" t="inlineStr"/>
-      <c r="J928" t="inlineStr"/>
+      <c r="J928" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K928" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31629,7 +31885,9 @@
         <v>0</v>
       </c>
       <c r="I929" t="inlineStr"/>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K929" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31666,7 +31924,9 @@
         <v>0</v>
       </c>
       <c r="I930" t="inlineStr"/>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31703,7 +31963,9 @@
         <v>0</v>
       </c>
       <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
+      <c r="J931" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31740,7 +32002,9 @@
         <v>0</v>
       </c>
       <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
+      <c r="J932" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31777,7 +32041,9 @@
         <v>0</v>
       </c>
       <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
+      <c r="J933" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31814,7 +32080,9 @@
         <v>0</v>
       </c>
       <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
+      <c r="J934" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31851,7 +32119,9 @@
         <v>0</v>
       </c>
       <c r="I935" t="inlineStr"/>
-      <c r="J935" t="inlineStr"/>
+      <c r="J935" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K935" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31888,7 +32158,9 @@
         <v>0</v>
       </c>
       <c r="I936" t="inlineStr"/>
-      <c r="J936" t="inlineStr"/>
+      <c r="J936" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K936" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31925,7 +32197,9 @@
         <v>0</v>
       </c>
       <c r="I937" t="inlineStr"/>
-      <c r="J937" t="inlineStr"/>
+      <c r="J937" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K937" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31962,7 +32236,9 @@
         <v>0</v>
       </c>
       <c r="I938" t="inlineStr"/>
-      <c r="J938" t="inlineStr"/>
+      <c r="J938" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K938" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31999,7 +32275,9 @@
         <v>0</v>
       </c>
       <c r="I939" t="inlineStr"/>
-      <c r="J939" t="inlineStr"/>
+      <c r="J939" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K939" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32036,7 +32314,9 @@
         <v>0</v>
       </c>
       <c r="I940" t="inlineStr"/>
-      <c r="J940" t="inlineStr"/>
+      <c r="J940" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K940" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32073,7 +32353,9 @@
         <v>0</v>
       </c>
       <c r="I941" t="inlineStr"/>
-      <c r="J941" t="inlineStr"/>
+      <c r="J941" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K941" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32110,7 +32392,9 @@
         <v>0</v>
       </c>
       <c r="I942" t="inlineStr"/>
-      <c r="J942" t="inlineStr"/>
+      <c r="J942" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K942" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32147,7 +32431,9 @@
         <v>0</v>
       </c>
       <c r="I943" t="inlineStr"/>
-      <c r="J943" t="inlineStr"/>
+      <c r="J943" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K943" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32184,7 +32470,9 @@
         <v>0</v>
       </c>
       <c r="I944" t="inlineStr"/>
-      <c r="J944" t="inlineStr"/>
+      <c r="J944" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K944" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32221,7 +32509,9 @@
         <v>0</v>
       </c>
       <c r="I945" t="inlineStr"/>
-      <c r="J945" t="inlineStr"/>
+      <c r="J945" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K945" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32258,7 +32548,9 @@
         <v>0</v>
       </c>
       <c r="I946" t="inlineStr"/>
-      <c r="J946" t="inlineStr"/>
+      <c r="J946" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K946" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32295,7 +32587,9 @@
         <v>0</v>
       </c>
       <c r="I947" t="inlineStr"/>
-      <c r="J947" t="inlineStr"/>
+      <c r="J947" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K947" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32332,7 +32626,9 @@
         <v>0</v>
       </c>
       <c r="I948" t="inlineStr"/>
-      <c r="J948" t="inlineStr"/>
+      <c r="J948" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K948" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32369,7 +32665,9 @@
         <v>0</v>
       </c>
       <c r="I949" t="inlineStr"/>
-      <c r="J949" t="inlineStr"/>
+      <c r="J949" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K949" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32406,7 +32704,9 @@
         <v>0</v>
       </c>
       <c r="I950" t="inlineStr"/>
-      <c r="J950" t="inlineStr"/>
+      <c r="J950" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K950" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32443,7 +32743,9 @@
         <v>0</v>
       </c>
       <c r="I951" t="inlineStr"/>
-      <c r="J951" t="inlineStr"/>
+      <c r="J951" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K951" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32480,7 +32782,9 @@
         <v>0</v>
       </c>
       <c r="I952" t="inlineStr"/>
-      <c r="J952" t="inlineStr"/>
+      <c r="J952" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K952" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32517,7 +32821,9 @@
         <v>0</v>
       </c>
       <c r="I953" t="inlineStr"/>
-      <c r="J953" t="inlineStr"/>
+      <c r="J953" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K953" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32554,7 +32860,9 @@
         <v>0</v>
       </c>
       <c r="I954" t="inlineStr"/>
-      <c r="J954" t="inlineStr"/>
+      <c r="J954" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K954" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32591,7 +32899,9 @@
         <v>0</v>
       </c>
       <c r="I955" t="inlineStr"/>
-      <c r="J955" t="inlineStr"/>
+      <c r="J955" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K955" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32628,7 +32938,9 @@
         <v>0</v>
       </c>
       <c r="I956" t="inlineStr"/>
-      <c r="J956" t="inlineStr"/>
+      <c r="J956" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K956" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32665,7 +32977,9 @@
         <v>0</v>
       </c>
       <c r="I957" t="inlineStr"/>
-      <c r="J957" t="inlineStr"/>
+      <c r="J957" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K957" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32702,7 +33016,9 @@
         <v>0</v>
       </c>
       <c r="I958" t="inlineStr"/>
-      <c r="J958" t="inlineStr"/>
+      <c r="J958" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K958" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32739,7 +33055,9 @@
         <v>0</v>
       </c>
       <c r="I959" t="inlineStr"/>
-      <c r="J959" t="inlineStr"/>
+      <c r="J959" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K959" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32776,7 +33094,9 @@
         <v>0</v>
       </c>
       <c r="I960" t="inlineStr"/>
-      <c r="J960" t="inlineStr"/>
+      <c r="J960" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K960" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32813,7 +33133,9 @@
         <v>0</v>
       </c>
       <c r="I961" t="inlineStr"/>
-      <c r="J961" t="inlineStr"/>
+      <c r="J961" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K961" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32850,7 +33172,9 @@
         <v>0</v>
       </c>
       <c r="I962" t="inlineStr"/>
-      <c r="J962" t="inlineStr"/>
+      <c r="J962" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K962" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32887,7 +33211,9 @@
         <v>0</v>
       </c>
       <c r="I963" t="inlineStr"/>
-      <c r="J963" t="inlineStr"/>
+      <c r="J963" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K963" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32924,7 +33250,9 @@
         <v>0</v>
       </c>
       <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
+      <c r="J964" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K964" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32961,7 +33289,9 @@
         <v>0</v>
       </c>
       <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
+      <c r="J965" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K965" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32998,7 +33328,9 @@
         <v>0</v>
       </c>
       <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
+      <c r="J966" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33035,7 +33367,9 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33072,7 +33406,9 @@
         <v>0</v>
       </c>
       <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
+      <c r="J968" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33109,7 +33445,9 @@
         <v>0</v>
       </c>
       <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
+      <c r="J969" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33146,7 +33484,9 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33183,7 +33523,9 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33220,7 +33562,9 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33257,7 +33601,9 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>3.55</v>
+      </c>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33269,6 +33615,6 @@
       <c r="M973" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest CON.xlsx
+++ b/BackTest/2020-01-13 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -550,7 +550,7 @@
         <v>27425878.92092336</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>27519181.06902336</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>27351272.71962336</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>27009686.86552336</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>27088283.42052336</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>27545384.46037135</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>27123779.19167135</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>27164892.93767134</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>27174892.93767134</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>27069899.41237134</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>27398751.29907135</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>26462227.01587134</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>26462227.01587134</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>26544961.43087134</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>26527660.13417134</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>26378817.47917134</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>26811941.92707134</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>26887194.17707134</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>26837677.88697134</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>26770595.47697134</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>26650447.87697134</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>26710341.06197134</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>26584686.69697134</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>26305920.23367134</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>26306080.23367134</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>26621105.79007134</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>26621265.79007134</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>26575709.82507134</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>26631938.70507134</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>26581376.59007134</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>26545468.84317134</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>27096232.92977134</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>27096232.92977134</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>27129252.90477134</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>27036674.79977134</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>27039074.79977134</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>26872015.21977134</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>26534071.18787134</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>25418706.26807134</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>25419462.66797134</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>25475382.53217134</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>25538096.30627134</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>25494542.80127134</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>25494941.80127134</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>25367134.97627134</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>25367274.97627134</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>25331230.69627134</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>25271275.96457134</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>25195683.09957134</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>25264767.96957134</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>25342643.29457134</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>25297728.15967134</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>25352435.19467134</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>25412508.99467134</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>25470591.02237134</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>25063039.79897134</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>25063179.79897134</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>25101005.92397134</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>25053447.49897134</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>25120899.45397134</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>25112122.05717134</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>25048043.33717134</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>24996568.18307134</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>24996568.18307134</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>25126975.42237134</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>25053885.63237134</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>25054025.63237134</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>25054025.63237134</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>25007969.05237134</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>24949897.71237134</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>24917858.35237134</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>24886651.22237134</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>24927095.97437134</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>24527731.07897134</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>25103096.47655862</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>25035513.45155862</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>25086576.18155862</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>25046526.98155862</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>25279863.54975862</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>25249326.03475862</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>25616449.98961565</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>25783828.72801565</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>25647222.33301565</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>25627710.64801564</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>25467745.88701564</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>25467745.88701564</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>25532325.22201564</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>25860024.03751564</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>25643323.37301564</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>25639770.28631564</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>25699743.47131564</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>25528367.36901564</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>25601156.54401564</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>25600756.54401564</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>25457363.67131564</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>25514161.99271564</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>25468606.02771564</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>25575237.02271564</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>25575387.02271564</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>25497291.08271564</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>25550856.88771564</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>25426475.88751564</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>24857867.27851564</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>25097202.63361564</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>25034125.14361564</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>25021882.53421564</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>25021882.53421564</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>24869618.57421564</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>24859237.89051564</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>24809677.00551564</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>24809677.00551564</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>24902422.65341564</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>24902691.65341564</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>24833106.16841564</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>24833340.16841564</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>24784580.51341564</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>24932387.10341564</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>25017593.65841564</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>25056440.39841564</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>25126526.49841564</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>25046928.71341564</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>24981355.83571564</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>24898983.98071564</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>24895709.29571564</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>25035161.96511564</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>25015566.66451564</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>24944479.33451564</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>25001048.82951564</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>24465613.89051564</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>25949055.54491564</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>25862094.16201564</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>26001837.69501564</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>26679057.00245716</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>26875558.82625716</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>27118839.24390623</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>26611897.43466127</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>26676197.47026127</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>26695677.47816127</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>26695677.47816127</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>26635603.67816127</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>26685665.17816127</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>26638607.36816127</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>26521931.27816127</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>26607035.82816127</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>26607174.82816127</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>26548313.26726127</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>26662367.04986127</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>26592079.64856128</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>26540516.30356128</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>26402868.35806128</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>26473089.68586127</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>26384397.94206128</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>26311308.15206128</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>26375253.83756128</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>26421310.41756127</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>26424639.38356127</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>26475702.11356127</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>26435652.91356127</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>26488361.30106127</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>26421779.50606127</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>26356187.40006126</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>26460115.32006126</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>26351982.48006126</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>26262411.75506126</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>26282297.40226126</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15466,7 +15466,7 @@
         <v>26281432.33926126</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>26338534.17056126</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15532,7 +15532,7 @@
         <v>26285969.59556126</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>26348309.70780401</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>26314267.88780401</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>26383670.789104</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>26383670.789104</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>26464710.70736126</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>26465557.02316126</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>26465557.02316126</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>23745225.40316126</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>23819316.42316126</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>23743225.54341851</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>23602279.23561851</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>23572961.51721851</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>23463024.70331851</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>23436220.14801851</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>23158151.05841851</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>23025510.14051851</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>22670806.29461851</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>22706302.93901851</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>22336742.44741851</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>22401321.78241851</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>22340377.17331851</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>22405135.09421851</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>22351532.26961851</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>22424121.44461851</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>22403263.63061851</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>22469344.81061851</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>22415278.39061851</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>22443061.47221851</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>22588949.03461851</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>22645017.91461851</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>22594455.79961851</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>22436952.02261851</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>22515047.96261851</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>22461482.15761851</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>22428093.13961851</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>22549633.60021851</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>22486556.11021851</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>22604200.63521851</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>22653961.52021851</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>22654561.52021851</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>22612509.86021851</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>22612509.86021851</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>22542924.37521851</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>23028658.96751852</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>23029083.42781851</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>22996042.83781851</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>22945981.33781851</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>22984028.07781851</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>22913941.97781851</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>22627188.27441851</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>22688763.91941851</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>22570618.77941851</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>22570618.77941851</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>22700713.90141851</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>22675986.60891851</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>22735384.34511851</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>22806972.29011851</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>22706820.72071851</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>22462596.77401851</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>22519666.88401851</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>20437211.37151851</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>19695085.98231851</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>19928071.66921851</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>17719403.26561852</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>17623285.18561852</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>17584338.06061852</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -27642,11 +27642,9 @@
         <v>19504131.82691849</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
-      </c>
-      <c r="I825" t="n">
-        <v>3.541</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I825" t="inlineStr"/>
       <c r="J825" t="n">
         <v>3.54</v>
       </c>
@@ -27720,11 +27718,9 @@
         <v>19502223.14161849</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
-      </c>
-      <c r="I827" t="n">
-        <v>3.544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I827" t="inlineStr"/>
       <c r="J827" t="n">
         <v>3.55</v>
       </c>
@@ -27761,11 +27757,9 @@
         <v>20742534.52051849</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
-      </c>
-      <c r="I828" t="n">
-        <v>3.544</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
       <c r="J828" t="n">
         <v>3.55</v>
       </c>
@@ -27802,11 +27796,9 @@
         <v>20783325.28101849</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
-      </c>
-      <c r="I829" t="n">
-        <v>3.545</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
       <c r="J829" t="n">
         <v>3.55</v>
       </c>
@@ -27843,11 +27835,9 @@
         <v>20783325.28101849</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
-      </c>
-      <c r="I830" t="n">
-        <v>3.569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
       <c r="J830" t="n">
         <v>3.55</v>
       </c>
@@ -27884,11 +27874,9 @@
         <v>20260347.89461849</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
-      </c>
-      <c r="I831" t="n">
-        <v>3.569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
       <c r="J831" t="n">
         <v>3.55</v>
       </c>
@@ -27925,11 +27913,9 @@
         <v>20301280.43991849</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
-      </c>
-      <c r="I832" t="n">
-        <v>3.556</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
       <c r="J832" t="n">
         <v>3.55</v>
       </c>
@@ -27966,11 +27952,9 @@
         <v>20301280.43991849</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
-      </c>
-      <c r="I833" t="n">
-        <v>3.569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
       <c r="J833" t="n">
         <v>3.55</v>
       </c>
@@ -28007,11 +27991,9 @@
         <v>20301280.43991849</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
-      </c>
-      <c r="I834" t="n">
-        <v>3.569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
       <c r="J834" t="n">
         <v>3.55</v>
       </c>
@@ -28048,11 +28030,9 @@
         <v>20212142.30451849</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
-      </c>
-      <c r="I835" t="n">
-        <v>3.569</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
       <c r="J835" t="n">
         <v>3.55</v>
       </c>
@@ -28089,11 +28069,9 @@
         <v>19524581.35061849</v>
       </c>
       <c r="H836" t="n">
-        <v>1</v>
-      </c>
-      <c r="I836" t="n">
-        <v>3.552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
       <c r="J836" t="n">
         <v>3.55</v>
       </c>
@@ -28130,11 +28108,9 @@
         <v>19545046.52651849</v>
       </c>
       <c r="H837" t="n">
-        <v>1</v>
-      </c>
-      <c r="I837" t="n">
-        <v>3.551</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
       <c r="J837" t="n">
         <v>3.55</v>
       </c>
@@ -28171,11 +28147,9 @@
         <v>19545046.52651849</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>3.552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
       <c r="J838" t="n">
         <v>3.55</v>
       </c>
@@ -28212,11 +28186,9 @@
         <v>19545046.52651849</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>3.552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
       <c r="J839" t="n">
         <v>3.55</v>
       </c>
@@ -28253,11 +28225,9 @@
         <v>19545046.52651849</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>3.552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
       <c r="J840" t="n">
         <v>3.55</v>
       </c>
@@ -28294,11 +28264,9 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H841" t="n">
-        <v>1</v>
-      </c>
-      <c r="I841" t="n">
-        <v>3.552</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
       <c r="J841" t="n">
         <v>3.55</v>
       </c>
@@ -28335,11 +28303,9 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H842" t="n">
-        <v>1</v>
-      </c>
-      <c r="I842" t="n">
-        <v>3.553</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I842" t="inlineStr"/>
       <c r="J842" t="n">
         <v>3.55</v>
       </c>
@@ -28376,11 +28342,9 @@
         <v>19988672.66911849</v>
       </c>
       <c r="H843" t="n">
-        <v>1</v>
-      </c>
-      <c r="I843" t="n">
-        <v>3.553</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I843" t="inlineStr"/>
       <c r="J843" t="n">
         <v>3.55</v>
       </c>
@@ -28417,11 +28381,9 @@
         <v>19662231.15681849</v>
       </c>
       <c r="H844" t="n">
-        <v>1</v>
-      </c>
-      <c r="I844" t="n">
-        <v>3.553</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I844" t="inlineStr"/>
       <c r="J844" t="n">
         <v>3.55</v>
       </c>
@@ -28458,11 +28420,9 @@
         <v>19817036.61221849</v>
       </c>
       <c r="H845" t="n">
-        <v>1</v>
-      </c>
-      <c r="I845" t="n">
-        <v>3.546</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I845" t="inlineStr"/>
       <c r="J845" t="n">
         <v>3.55</v>
       </c>
@@ -28499,11 +28459,9 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H846" t="n">
-        <v>1</v>
-      </c>
-      <c r="I846" t="n">
-        <v>3.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I846" t="inlineStr"/>
       <c r="J846" t="n">
         <v>3.55</v>
       </c>
@@ -28540,11 +28498,9 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>3.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
       <c r="J847" t="n">
         <v>3.55</v>
       </c>
@@ -28581,11 +28537,9 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H848" t="n">
-        <v>1</v>
-      </c>
-      <c r="I848" t="n">
-        <v>3.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I848" t="inlineStr"/>
       <c r="J848" t="n">
         <v>3.55</v>
       </c>
@@ -28622,11 +28576,9 @@
         <v>19863613.21721849</v>
       </c>
       <c r="H849" t="n">
-        <v>1</v>
-      </c>
-      <c r="I849" t="n">
-        <v>3.57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I849" t="inlineStr"/>
       <c r="J849" t="n">
         <v>3.55</v>
       </c>
@@ -28663,11 +28615,9 @@
         <v>19807544.33721849</v>
       </c>
       <c r="H850" t="n">
-        <v>1</v>
-      </c>
-      <c r="I850" t="n">
-        <v>3.578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I850" t="inlineStr"/>
       <c r="J850" t="n">
         <v>3.55</v>
       </c>
@@ -28704,11 +28654,9 @@
         <v>19756982.22221849</v>
       </c>
       <c r="H851" t="n">
-        <v>1</v>
-      </c>
-      <c r="I851" t="n">
-        <v>3.573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I851" t="inlineStr"/>
       <c r="J851" t="n">
         <v>3.55</v>
       </c>
@@ -28745,11 +28693,9 @@
         <v>19888643.9672185</v>
       </c>
       <c r="H852" t="n">
-        <v>1</v>
-      </c>
-      <c r="I852" t="n">
-        <v>3.571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I852" t="inlineStr"/>
       <c r="J852" t="n">
         <v>3.55</v>
       </c>
@@ -28786,11 +28732,9 @@
         <v>19888643.9672185</v>
       </c>
       <c r="H853" t="n">
-        <v>1</v>
-      </c>
-      <c r="I853" t="n">
-        <v>3.575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I853" t="inlineStr"/>
       <c r="J853" t="n">
         <v>3.55</v>
       </c>
@@ -29100,11 +29044,9 @@
         <v>19939206.08221849</v>
       </c>
       <c r="H861" t="n">
-        <v>1</v>
-      </c>
-      <c r="I861" t="n">
-        <v>3.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I861" t="inlineStr"/>
       <c r="J861" t="n">
         <v>3.55</v>
       </c>
@@ -29141,11 +29083,9 @@
         <v>20021431.09521849</v>
       </c>
       <c r="H862" t="n">
-        <v>1</v>
-      </c>
-      <c r="I862" t="n">
-        <v>3.573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I862" t="inlineStr"/>
       <c r="J862" t="n">
         <v>3.55</v>
       </c>
@@ -29182,11 +29122,9 @@
         <v>19971369.59521849</v>
       </c>
       <c r="H863" t="n">
-        <v>1</v>
-      </c>
-      <c r="I863" t="n">
-        <v>3.575</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I863" t="inlineStr"/>
       <c r="J863" t="n">
         <v>3.55</v>
       </c>
@@ -29223,11 +29161,9 @@
         <v>20009416.33521849</v>
       </c>
       <c r="H864" t="n">
-        <v>1</v>
-      </c>
-      <c r="I864" t="n">
-        <v>3.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I864" t="inlineStr"/>
       <c r="J864" t="n">
         <v>3.55</v>
       </c>
@@ -29264,11 +29200,9 @@
         <v>19939330.23521849</v>
       </c>
       <c r="H865" t="n">
-        <v>1</v>
-      </c>
-      <c r="I865" t="n">
-        <v>3.577</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I865" t="inlineStr"/>
       <c r="J865" t="n">
         <v>3.55</v>
       </c>
@@ -29305,11 +29239,9 @@
         <v>20018928.02021849</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
-      </c>
-      <c r="I866" t="n">
-        <v>3.573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I866" t="inlineStr"/>
       <c r="J866" t="n">
         <v>3.55</v>
       </c>
@@ -29346,11 +29278,9 @@
         <v>19957352.37521849</v>
       </c>
       <c r="H867" t="n">
-        <v>1</v>
-      </c>
-      <c r="I867" t="n">
-        <v>3.576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I867" t="inlineStr"/>
       <c r="J867" t="n">
         <v>3.55</v>
       </c>
@@ -29387,11 +29317,9 @@
         <v>20036449.54521849</v>
       </c>
       <c r="H868" t="n">
-        <v>1</v>
-      </c>
-      <c r="I868" t="n">
-        <v>3.571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I868" t="inlineStr"/>
       <c r="J868" t="n">
         <v>3.55</v>
       </c>
@@ -29428,11 +29356,9 @@
         <v>20076006.22661849</v>
       </c>
       <c r="H869" t="n">
-        <v>1</v>
-      </c>
-      <c r="I869" t="n">
-        <v>3.573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I869" t="inlineStr"/>
       <c r="J869" t="n">
         <v>3.55</v>
       </c>
@@ -29469,11 +29395,9 @@
         <v>20004918.8966185</v>
       </c>
       <c r="H870" t="n">
-        <v>1</v>
-      </c>
-      <c r="I870" t="n">
-        <v>3.578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I870" t="inlineStr"/>
       <c r="J870" t="n">
         <v>3.55</v>
       </c>
@@ -29510,11 +29434,9 @@
         <v>19948349.4016185</v>
       </c>
       <c r="H871" t="n">
-        <v>1</v>
-      </c>
-      <c r="I871" t="n">
-        <v>3.572</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I871" t="inlineStr"/>
       <c r="J871" t="n">
         <v>3.55</v>
       </c>
@@ -29551,11 +29473,9 @@
         <v>19948349.4016185</v>
       </c>
       <c r="H872" t="n">
-        <v>1</v>
-      </c>
-      <c r="I872" t="n">
-        <v>3.571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I872" t="inlineStr"/>
       <c r="J872" t="n">
         <v>3.55</v>
       </c>
@@ -29592,11 +29512,9 @@
         <v>19988899.2166185</v>
       </c>
       <c r="H873" t="n">
-        <v>1</v>
-      </c>
-      <c r="I873" t="n">
-        <v>3.571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I873" t="inlineStr"/>
       <c r="J873" t="n">
         <v>3.55</v>
       </c>
@@ -29633,11 +29551,9 @@
         <v>19917311.2716185</v>
       </c>
       <c r="H874" t="n">
-        <v>1</v>
-      </c>
-      <c r="I874" t="n">
-        <v>3.576</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I874" t="inlineStr"/>
       <c r="J874" t="n">
         <v>3.55</v>
       </c>
@@ -29674,11 +29590,9 @@
         <v>19959863.5466185</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
-      </c>
-      <c r="I875" t="n">
-        <v>3.571</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I875" t="inlineStr"/>
       <c r="J875" t="n">
         <v>3.55</v>
       </c>
@@ -29715,11 +29629,9 @@
         <v>19268132.04571849</v>
       </c>
       <c r="H876" t="n">
-        <v>1</v>
-      </c>
-      <c r="I876" t="n">
-        <v>3.573</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I876" t="inlineStr"/>
       <c r="J876" t="n">
         <v>3.55</v>
       </c>
@@ -31560,11 +31472,9 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>3.578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
       <c r="J921" t="n">
         <v>3.55</v>
       </c>
@@ -31601,11 +31511,9 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H922" t="n">
-        <v>1</v>
-      </c>
-      <c r="I922" t="n">
-        <v>3.579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
       <c r="J922" t="n">
         <v>3.55</v>
       </c>
@@ -31642,11 +31550,9 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>3.579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
       <c r="J923" t="n">
         <v>3.55</v>
       </c>
@@ -31683,11 +31589,9 @@
         <v>19846698.6632185</v>
       </c>
       <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>3.579</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
       <c r="J924" t="n">
         <v>3.55</v>
       </c>
@@ -31724,11 +31628,9 @@
         <v>19891754.0132185</v>
       </c>
       <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>3.628</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I925" t="inlineStr"/>
       <c r="J925" t="n">
         <v>3.55</v>
       </c>
@@ -33615,6 +33517,6 @@
       <c r="M973" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest CON.xlsx
+++ b/BackTest/2020-01-13 BackTest CON.xlsx
@@ -6325,7 +6325,7 @@
         <v>25418706.26807134</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>25419462.66797134</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>25475382.53217134</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>25538096.30627134</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>25494542.80127134</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>25494941.80127134</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>25367134.97627134</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>25367274.97627134</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>25331230.69627134</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>25271275.96457134</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>25195683.09957134</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>25264767.96957134</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>25342643.29457134</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>25297728.15967134</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>25352435.19467134</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>25412508.99467134</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>25470591.02237134</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>25063039.79897134</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>25063179.79897134</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>25101005.92397134</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>25053447.49897134</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>25120899.45397134</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>25112122.05717134</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>25048043.33717134</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>24996568.18307134</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>24996568.18307134</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>25126975.42237134</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>25053885.63237134</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>25054025.63237134</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>25054025.63237134</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>25007969.05237134</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>24949897.71237134</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>24917858.35237134</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>24886651.22237134</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>24527731.07897134</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>25103096.47655862</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>25035513.45155862</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>25086576.18155862</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>25046526.98155862</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>25279863.54975862</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11308,7 +11308,7 @@
         <v>25249326.03475862</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>25616449.98961565</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>25783828.72801565</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>25627710.64801564</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>25661752.46801564</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>25467745.88701564</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>25467745.88701564</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>25532325.22201564</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>25860024.03751564</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>25643323.37301564</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>25639770.28631564</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>25699743.47131564</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>25528367.36901564</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>25601156.54401564</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>25457363.67131564</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>25514161.99271564</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>25575237.02271564</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>25575387.02271564</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>25497291.08271564</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>25426475.88751564</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>26875558.82625716</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>27118839.24390623</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>27049204.99406127</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>26611897.43466127</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>26676197.47026127</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>26695677.47816127</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14212,7 +14212,7 @@
         <v>26695677.47816127</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>26635603.67816127</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>26685665.17816127</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>26638607.36816127</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14344,7 +14344,7 @@
         <v>26521931.27816127</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14377,7 +14377,7 @@
         <v>26607035.82816127</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14410,7 +14410,7 @@
         <v>26607174.82816127</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>26548313.26726127</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14476,7 +14476,7 @@
         <v>26662367.04986127</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14542,7 +14542,7 @@
         <v>26592079.64856128</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>26540516.30356128</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14608,7 +14608,7 @@
         <v>26402868.35806128</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>26473089.68586127</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>26384397.94206128</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>26311308.15206128</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>26375253.83756128</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14773,7 +14773,7 @@
         <v>26421310.41756127</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>26424639.38356127</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>26475702.11356127</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>26435652.91356127</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>26488361.30106127</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>26421779.50606127</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>26219779.50606127</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>26283858.22606127</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15136,7 +15136,7 @@
         <v>26318400.66106126</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -15169,7 +15169,7 @@
         <v>26281355.15106126</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>26356187.40006126</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>26428275.96006126</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>26380016.92006126</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15301,7 +15301,7 @@
         <v>26380016.92006126</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15334,7 +15334,7 @@
         <v>26460115.32006126</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -15367,7 +15367,7 @@
         <v>26351982.48006126</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>26262411.75506126</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>26338534.17056126</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>26348309.70780401</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>26314267.88780401</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>26383670.789104</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>26383670.789104</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>26464710.70736126</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>26465557.02316126</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>26465557.02316126</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>23745225.40316126</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>23819316.42316126</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>17659129.46561852</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>17719403.26561852</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>17623285.18561852</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>17584338.06061852</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -27445,14 +27445,10 @@
         <v>20798969.15381849</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="J820" t="n">
-        <v>3.54</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr"/>
       <c r="L820" t="n">
         <v>1</v>
@@ -27482,19 +27478,11 @@
         <v>20858969.15381849</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="J821" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="K821" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="inlineStr"/>
+      <c r="K821" t="inlineStr"/>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27523,19 +27511,11 @@
         <v>20858969.15381849</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="J822" t="n">
-        <v>3.54</v>
-      </c>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="inlineStr"/>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27601,11 +27581,9 @@
         <v>19499088.19211849</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>3.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="n">
         <v>3.54</v>
       </c>
@@ -27681,14 +27659,10 @@
         <v>19502223.14161849</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
-      </c>
-      <c r="I826" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="J826" t="n">
-        <v>3.55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
@@ -27721,677 +27695,589 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K827" t="inlineStr">
+      <c r="J827" t="inlineStr"/>
+      <c r="K827" t="inlineStr"/>
+      <c r="L827" t="n">
+        <v>1</v>
+      </c>
+      <c r="M827" t="inlineStr"/>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>826</v>
+      </c>
+      <c r="B828" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="C828" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="D828" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="E828" t="n">
+        <v>3.545</v>
+      </c>
+      <c r="F828" t="n">
+        <v>1240311.3789</v>
+      </c>
+      <c r="G828" t="n">
+        <v>20742534.52051849</v>
+      </c>
+      <c r="H828" t="n">
+        <v>0</v>
+      </c>
+      <c r="I828" t="inlineStr"/>
+      <c r="J828" t="inlineStr"/>
+      <c r="K828" t="inlineStr"/>
+      <c r="L828" t="n">
+        <v>1</v>
+      </c>
+      <c r="M828" t="inlineStr"/>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>827</v>
+      </c>
+      <c r="B829" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="C829" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="D829" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="E829" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="F829" t="n">
+        <v>40790.7605</v>
+      </c>
+      <c r="G829" t="n">
+        <v>20783325.28101849</v>
+      </c>
+      <c r="H829" t="n">
+        <v>0</v>
+      </c>
+      <c r="I829" t="inlineStr"/>
+      <c r="J829" t="inlineStr"/>
+      <c r="K829" t="inlineStr"/>
+      <c r="L829" t="n">
+        <v>1</v>
+      </c>
+      <c r="M829" t="inlineStr"/>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>828</v>
+      </c>
+      <c r="B830" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="C830" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="D830" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="E830" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="F830" t="n">
+        <v>66323.7479</v>
+      </c>
+      <c r="G830" t="n">
+        <v>20783325.28101849</v>
+      </c>
+      <c r="H830" t="n">
+        <v>0</v>
+      </c>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr"/>
+      <c r="L830" t="n">
+        <v>1</v>
+      </c>
+      <c r="M830" t="inlineStr"/>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>829</v>
+      </c>
+      <c r="B831" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="C831" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="D831" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="E831" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="F831" t="n">
+        <v>522977.3864</v>
+      </c>
+      <c r="G831" t="n">
+        <v>20260347.89461849</v>
+      </c>
+      <c r="H831" t="n">
+        <v>0</v>
+      </c>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr"/>
+      <c r="L831" t="n">
+        <v>1</v>
+      </c>
+      <c r="M831" t="inlineStr"/>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="B832" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="C832" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="D832" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="E832" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="F832" t="n">
+        <v>40932.5453</v>
+      </c>
+      <c r="G832" t="n">
+        <v>20301280.43991849</v>
+      </c>
+      <c r="H832" t="n">
+        <v>0</v>
+      </c>
+      <c r="I832" t="inlineStr"/>
+      <c r="J832" t="inlineStr"/>
+      <c r="K832" t="inlineStr"/>
+      <c r="L832" t="n">
+        <v>1</v>
+      </c>
+      <c r="M832" t="inlineStr"/>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>831</v>
+      </c>
+      <c r="B833" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="C833" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="D833" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="E833" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="F833" t="n">
+        <v>12279.596</v>
+      </c>
+      <c r="G833" t="n">
+        <v>20301280.43991849</v>
+      </c>
+      <c r="H833" t="n">
+        <v>0</v>
+      </c>
+      <c r="I833" t="inlineStr"/>
+      <c r="J833" t="inlineStr"/>
+      <c r="K833" t="inlineStr"/>
+      <c r="L833" t="n">
+        <v>1</v>
+      </c>
+      <c r="M833" t="inlineStr"/>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>832</v>
+      </c>
+      <c r="B834" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="C834" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="D834" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="E834" t="n">
+        <v>3.569</v>
+      </c>
+      <c r="F834" t="n">
+        <v>110518.8799</v>
+      </c>
+      <c r="G834" t="n">
+        <v>20301280.43991849</v>
+      </c>
+      <c r="H834" t="n">
+        <v>0</v>
+      </c>
+      <c r="I834" t="inlineStr"/>
+      <c r="J834" t="inlineStr"/>
+      <c r="K834" t="inlineStr"/>
+      <c r="L834" t="n">
+        <v>1</v>
+      </c>
+      <c r="M834" t="inlineStr"/>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>833</v>
+      </c>
+      <c r="B835" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="C835" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="D835" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="E835" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="F835" t="n">
+        <v>89138.1354</v>
+      </c>
+      <c r="G835" t="n">
+        <v>20212142.30451849</v>
+      </c>
+      <c r="H835" t="n">
+        <v>0</v>
+      </c>
+      <c r="I835" t="inlineStr"/>
+      <c r="J835" t="inlineStr"/>
+      <c r="K835" t="inlineStr"/>
+      <c r="L835" t="n">
+        <v>1</v>
+      </c>
+      <c r="M835" t="inlineStr"/>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>834</v>
+      </c>
+      <c r="B836" t="n">
+        <v>3.551</v>
+      </c>
+      <c r="C836" t="n">
+        <v>3.551</v>
+      </c>
+      <c r="D836" t="n">
+        <v>3.551</v>
+      </c>
+      <c r="E836" t="n">
+        <v>3.551</v>
+      </c>
+      <c r="F836" t="n">
+        <v>687560.9539</v>
+      </c>
+      <c r="G836" t="n">
+        <v>19524581.35061849</v>
+      </c>
+      <c r="H836" t="n">
+        <v>0</v>
+      </c>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="n">
+        <v>1</v>
+      </c>
+      <c r="M836" t="inlineStr"/>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>835</v>
+      </c>
+      <c r="B837" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="C837" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="D837" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="E837" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="F837" t="n">
+        <v>20465.1759</v>
+      </c>
+      <c r="G837" t="n">
+        <v>19545046.52651849</v>
+      </c>
+      <c r="H837" t="n">
+        <v>0</v>
+      </c>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr"/>
+      <c r="L837" t="n">
+        <v>1</v>
+      </c>
+      <c r="M837" t="inlineStr"/>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>836</v>
+      </c>
+      <c r="B838" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="C838" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="D838" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="E838" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="F838" t="n">
+        <v>163731.0212</v>
+      </c>
+      <c r="G838" t="n">
+        <v>19545046.52651849</v>
+      </c>
+      <c r="H838" t="n">
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr"/>
+      <c r="L838" t="n">
+        <v>1</v>
+      </c>
+      <c r="M838" t="inlineStr"/>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>837</v>
+      </c>
+      <c r="B839" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="C839" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="D839" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="E839" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="F839" t="n">
+        <v>49355.5173</v>
+      </c>
+      <c r="G839" t="n">
+        <v>19545046.52651849</v>
+      </c>
+      <c r="H839" t="n">
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr"/>
+      <c r="L839" t="n">
+        <v>1</v>
+      </c>
+      <c r="M839" t="inlineStr"/>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>838</v>
+      </c>
+      <c r="B840" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="C840" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="D840" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="E840" t="n">
+        <v>3.552</v>
+      </c>
+      <c r="F840" t="n">
+        <v>45389.9893</v>
+      </c>
+      <c r="G840" t="n">
+        <v>19545046.52651849</v>
+      </c>
+      <c r="H840" t="n">
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="inlineStr"/>
+      <c r="K840" t="inlineStr"/>
+      <c r="L840" t="n">
+        <v>1</v>
+      </c>
+      <c r="M840" t="inlineStr"/>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>839</v>
+      </c>
+      <c r="B841" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="C841" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="D841" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="E841" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="F841" t="n">
+        <v>443626.1426</v>
+      </c>
+      <c r="G841" t="n">
+        <v>19988672.66911849</v>
+      </c>
+      <c r="H841" t="n">
+        <v>0</v>
+      </c>
+      <c r="I841" t="inlineStr"/>
+      <c r="J841" t="inlineStr"/>
+      <c r="K841" t="inlineStr"/>
+      <c r="L841" t="n">
+        <v>1</v>
+      </c>
+      <c r="M841" t="inlineStr"/>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="B842" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="C842" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="D842" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="E842" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="F842" t="n">
+        <v>800000</v>
+      </c>
+      <c r="G842" t="n">
+        <v>19988672.66911849</v>
+      </c>
+      <c r="H842" t="n">
+        <v>1</v>
+      </c>
+      <c r="I842" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="J842" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="K842" t="inlineStr"/>
+      <c r="L842" t="n">
+        <v>1</v>
+      </c>
+      <c r="M842" t="inlineStr"/>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>841</v>
+      </c>
+      <c r="B843" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="C843" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="D843" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="E843" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="F843" t="n">
+        <v>10239.4087</v>
+      </c>
+      <c r="G843" t="n">
+        <v>19988672.66911849</v>
+      </c>
+      <c r="H843" t="n">
+        <v>1</v>
+      </c>
+      <c r="I843" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="J843" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="K843" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L827" t="n">
-        <v>1</v>
-      </c>
-      <c r="M827" t="inlineStr"/>
-    </row>
-    <row r="828">
-      <c r="A828" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B828" t="n">
+      <c r="L843" t="n">
+        <v>1</v>
+      </c>
+      <c r="M843" t="inlineStr"/>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>842</v>
+      </c>
+      <c r="B844" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="C844" t="n">
         <v>3.546</v>
       </c>
-      <c r="C828" t="n">
-        <v>3.545</v>
-      </c>
-      <c r="D828" t="n">
+      <c r="D844" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="E844" t="n">
         <v>3.546</v>
       </c>
-      <c r="E828" t="n">
-        <v>3.545</v>
-      </c>
-      <c r="F828" t="n">
-        <v>1240311.3789</v>
-      </c>
-      <c r="G828" t="n">
-        <v>20742534.52051849</v>
-      </c>
-      <c r="H828" t="n">
-        <v>0</v>
-      </c>
-      <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K828" t="inlineStr">
+      <c r="F844" t="n">
+        <v>326441.5123</v>
+      </c>
+      <c r="G844" t="n">
+        <v>19662231.15681849</v>
+      </c>
+      <c r="H844" t="n">
+        <v>1</v>
+      </c>
+      <c r="I844" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="J844" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="K844" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L828" t="n">
-        <v>1</v>
-      </c>
-      <c r="M828" t="inlineStr"/>
-    </row>
-    <row r="829">
-      <c r="A829" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B829" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="C829" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="D829" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="E829" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="F829" t="n">
-        <v>40790.7605</v>
-      </c>
-      <c r="G829" t="n">
-        <v>20783325.28101849</v>
-      </c>
-      <c r="H829" t="n">
-        <v>0</v>
-      </c>
-      <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L829" t="n">
-        <v>1</v>
-      </c>
-      <c r="M829" t="inlineStr"/>
-    </row>
-    <row r="830">
-      <c r="A830" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B830" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="C830" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="D830" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="E830" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="F830" t="n">
-        <v>66323.7479</v>
-      </c>
-      <c r="G830" t="n">
-        <v>20783325.28101849</v>
-      </c>
-      <c r="H830" t="n">
-        <v>0</v>
-      </c>
-      <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L830" t="n">
-        <v>1</v>
-      </c>
-      <c r="M830" t="inlineStr"/>
-    </row>
-    <row r="831">
-      <c r="A831" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B831" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="C831" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="D831" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="E831" t="n">
-        <v>3.556</v>
-      </c>
-      <c r="F831" t="n">
-        <v>522977.3864</v>
-      </c>
-      <c r="G831" t="n">
-        <v>20260347.89461849</v>
-      </c>
-      <c r="H831" t="n">
-        <v>0</v>
-      </c>
-      <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L831" t="n">
-        <v>1</v>
-      </c>
-      <c r="M831" t="inlineStr"/>
-    </row>
-    <row r="832">
-      <c r="A832" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B832" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="C832" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="D832" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="E832" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="F832" t="n">
-        <v>40932.5453</v>
-      </c>
-      <c r="G832" t="n">
-        <v>20301280.43991849</v>
-      </c>
-      <c r="H832" t="n">
-        <v>0</v>
-      </c>
-      <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L832" t="n">
-        <v>1</v>
-      </c>
-      <c r="M832" t="inlineStr"/>
-    </row>
-    <row r="833">
-      <c r="A833" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B833" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="C833" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="D833" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="E833" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="F833" t="n">
-        <v>12279.596</v>
-      </c>
-      <c r="G833" t="n">
-        <v>20301280.43991849</v>
-      </c>
-      <c r="H833" t="n">
-        <v>0</v>
-      </c>
-      <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L833" t="n">
-        <v>1</v>
-      </c>
-      <c r="M833" t="inlineStr"/>
-    </row>
-    <row r="834">
-      <c r="A834" s="1" t="n">
-        <v>832</v>
-      </c>
-      <c r="B834" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="C834" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="D834" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="E834" t="n">
-        <v>3.569</v>
-      </c>
-      <c r="F834" t="n">
-        <v>110518.8799</v>
-      </c>
-      <c r="G834" t="n">
-        <v>20301280.43991849</v>
-      </c>
-      <c r="H834" t="n">
-        <v>0</v>
-      </c>
-      <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L834" t="n">
-        <v>1</v>
-      </c>
-      <c r="M834" t="inlineStr"/>
-    </row>
-    <row r="835">
-      <c r="A835" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B835" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="C835" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="D835" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="E835" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="F835" t="n">
-        <v>89138.1354</v>
-      </c>
-      <c r="G835" t="n">
-        <v>20212142.30451849</v>
-      </c>
-      <c r="H835" t="n">
-        <v>0</v>
-      </c>
-      <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L835" t="n">
-        <v>1</v>
-      </c>
-      <c r="M835" t="inlineStr"/>
-    </row>
-    <row r="836">
-      <c r="A836" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B836" t="n">
-        <v>3.551</v>
-      </c>
-      <c r="C836" t="n">
-        <v>3.551</v>
-      </c>
-      <c r="D836" t="n">
-        <v>3.551</v>
-      </c>
-      <c r="E836" t="n">
-        <v>3.551</v>
-      </c>
-      <c r="F836" t="n">
-        <v>687560.9539</v>
-      </c>
-      <c r="G836" t="n">
-        <v>19524581.35061849</v>
-      </c>
-      <c r="H836" t="n">
-        <v>0</v>
-      </c>
-      <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L836" t="n">
-        <v>1</v>
-      </c>
-      <c r="M836" t="inlineStr"/>
-    </row>
-    <row r="837">
-      <c r="A837" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B837" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="C837" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="D837" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="E837" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="F837" t="n">
-        <v>20465.1759</v>
-      </c>
-      <c r="G837" t="n">
-        <v>19545046.52651849</v>
-      </c>
-      <c r="H837" t="n">
-        <v>0</v>
-      </c>
-      <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K837" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L837" t="n">
-        <v>1</v>
-      </c>
-      <c r="M837" t="inlineStr"/>
-    </row>
-    <row r="838">
-      <c r="A838" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B838" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="C838" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="D838" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="E838" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="F838" t="n">
-        <v>163731.0212</v>
-      </c>
-      <c r="G838" t="n">
-        <v>19545046.52651849</v>
-      </c>
-      <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K838" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L838" t="n">
-        <v>1</v>
-      </c>
-      <c r="M838" t="inlineStr"/>
-    </row>
-    <row r="839">
-      <c r="A839" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B839" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="C839" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="D839" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="E839" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="F839" t="n">
-        <v>49355.5173</v>
-      </c>
-      <c r="G839" t="n">
-        <v>19545046.52651849</v>
-      </c>
-      <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K839" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L839" t="n">
-        <v>1</v>
-      </c>
-      <c r="M839" t="inlineStr"/>
-    </row>
-    <row r="840">
-      <c r="A840" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B840" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="C840" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="D840" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="E840" t="n">
-        <v>3.552</v>
-      </c>
-      <c r="F840" t="n">
-        <v>45389.9893</v>
-      </c>
-      <c r="G840" t="n">
-        <v>19545046.52651849</v>
-      </c>
-      <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K840" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L840" t="n">
-        <v>1</v>
-      </c>
-      <c r="M840" t="inlineStr"/>
-    </row>
-    <row r="841">
-      <c r="A841" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B841" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="C841" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="D841" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="E841" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="F841" t="n">
-        <v>443626.1426</v>
-      </c>
-      <c r="G841" t="n">
-        <v>19988672.66911849</v>
-      </c>
-      <c r="H841" t="n">
-        <v>0</v>
-      </c>
-      <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K841" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L841" t="n">
-        <v>1</v>
-      </c>
-      <c r="M841" t="inlineStr"/>
-    </row>
-    <row r="842">
-      <c r="A842" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B842" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="C842" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="D842" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="E842" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="F842" t="n">
-        <v>800000</v>
-      </c>
-      <c r="G842" t="n">
-        <v>19988672.66911849</v>
-      </c>
-      <c r="H842" t="n">
-        <v>0</v>
-      </c>
-      <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K842" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L842" t="n">
-        <v>1</v>
-      </c>
-      <c r="M842" t="inlineStr"/>
-    </row>
-    <row r="843">
-      <c r="A843" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B843" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="C843" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="D843" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="E843" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="F843" t="n">
-        <v>10239.4087</v>
-      </c>
-      <c r="G843" t="n">
-        <v>19988672.66911849</v>
-      </c>
-      <c r="H843" t="n">
-        <v>0</v>
-      </c>
-      <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K843" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L843" t="n">
-        <v>1</v>
-      </c>
-      <c r="M843" t="inlineStr"/>
-    </row>
-    <row r="844">
-      <c r="A844" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B844" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="C844" t="n">
-        <v>3.546</v>
-      </c>
-      <c r="D844" t="n">
-        <v>3.553</v>
-      </c>
-      <c r="E844" t="n">
-        <v>3.546</v>
-      </c>
-      <c r="F844" t="n">
-        <v>326441.5123</v>
-      </c>
-      <c r="G844" t="n">
-        <v>19662231.15681849</v>
-      </c>
-      <c r="H844" t="n">
-        <v>0</v>
-      </c>
-      <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="K844" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28420,11 +28306,13 @@
         <v>19817036.61221849</v>
       </c>
       <c r="H845" t="n">
-        <v>0</v>
-      </c>
-      <c r="I845" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I845" t="n">
+        <v>3.546</v>
+      </c>
       <c r="J845" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K845" t="inlineStr">
         <is>
@@ -28459,11 +28347,13 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H846" t="n">
-        <v>0</v>
-      </c>
-      <c r="I846" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I846" t="n">
+        <v>3.56</v>
+      </c>
       <c r="J846" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K846" t="inlineStr">
         <is>
@@ -28498,11 +28388,13 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
-      </c>
-      <c r="I847" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I847" t="n">
+        <v>3.57</v>
+      </c>
       <c r="J847" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K847" t="inlineStr">
         <is>
@@ -28537,11 +28429,13 @@
         <v>19817536.61221849</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
-      </c>
-      <c r="I848" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I848" t="n">
+        <v>3.57</v>
+      </c>
       <c r="J848" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K848" t="inlineStr">
         <is>
@@ -28576,11 +28470,13 @@
         <v>19863613.21721849</v>
       </c>
       <c r="H849" t="n">
-        <v>0</v>
-      </c>
-      <c r="I849" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I849" t="n">
+        <v>3.57</v>
+      </c>
       <c r="J849" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K849" t="inlineStr">
         <is>
@@ -28615,11 +28511,13 @@
         <v>19807544.33721849</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
-      </c>
-      <c r="I850" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I850" t="n">
+        <v>3.578</v>
+      </c>
       <c r="J850" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K850" t="inlineStr">
         <is>
@@ -28654,11 +28552,13 @@
         <v>19756982.22221849</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
-      </c>
-      <c r="I851" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I851" t="n">
+        <v>3.573</v>
+      </c>
       <c r="J851" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K851" t="inlineStr">
         <is>
@@ -28693,11 +28593,13 @@
         <v>19888643.9672185</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
-      </c>
-      <c r="I852" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I852" t="n">
+        <v>3.571</v>
+      </c>
       <c r="J852" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K852" t="inlineStr">
         <is>
@@ -28732,11 +28634,13 @@
         <v>19888643.9672185</v>
       </c>
       <c r="H853" t="n">
-        <v>0</v>
-      </c>
-      <c r="I853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I853" t="n">
+        <v>3.575</v>
+      </c>
       <c r="J853" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K853" t="inlineStr">
         <is>
@@ -28771,11 +28675,13 @@
         <v>19825065.8622185</v>
       </c>
       <c r="H854" t="n">
-        <v>0</v>
-      </c>
-      <c r="I854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I854" t="n">
+        <v>3.575</v>
+      </c>
       <c r="J854" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K854" t="inlineStr">
         <is>
@@ -28810,11 +28716,13 @@
         <v>19888143.35221849</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
-      </c>
-      <c r="I855" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I855" t="n">
+        <v>3.573</v>
+      </c>
       <c r="J855" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K855" t="inlineStr">
         <is>
@@ -28849,11 +28757,13 @@
         <v>19953723.9172185</v>
       </c>
       <c r="H856" t="n">
-        <v>0</v>
-      </c>
-      <c r="I856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I856" t="n">
+        <v>3.575</v>
+      </c>
       <c r="J856" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K856" t="inlineStr">
         <is>
@@ -28888,11 +28798,13 @@
         <v>19953723.9172185</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
-      </c>
-      <c r="I857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I857" t="n">
+        <v>3.577</v>
+      </c>
       <c r="J857" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K857" t="inlineStr">
         <is>
@@ -28927,11 +28839,13 @@
         <v>19904163.03221849</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
-      </c>
-      <c r="I858" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I858" t="n">
+        <v>3.577</v>
+      </c>
       <c r="J858" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K858" t="inlineStr">
         <is>
@@ -28966,11 +28880,13 @@
         <v>19946214.69221849</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
-      </c>
-      <c r="I859" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I859" t="n">
+        <v>3.576</v>
+      </c>
       <c r="J859" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K859" t="inlineStr">
         <is>
@@ -29005,11 +28921,13 @@
         <v>19869620.59721849</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
-      </c>
-      <c r="I860" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I860" t="n">
+        <v>3.577</v>
+      </c>
       <c r="J860" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K860" t="inlineStr">
         <is>
@@ -29044,11 +28962,13 @@
         <v>19939206.08221849</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
-      </c>
-      <c r="I861" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I861" t="n">
+        <v>3.572</v>
+      </c>
       <c r="J861" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K861" t="inlineStr">
         <is>
@@ -29083,11 +29003,13 @@
         <v>20021431.09521849</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
-      </c>
-      <c r="I862" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I862" t="n">
+        <v>3.573</v>
+      </c>
       <c r="J862" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K862" t="inlineStr">
         <is>
@@ -29122,11 +29044,13 @@
         <v>19971369.59521849</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
-      </c>
-      <c r="I863" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I863" t="n">
+        <v>3.575</v>
+      </c>
       <c r="J863" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K863" t="inlineStr">
         <is>
@@ -29161,11 +29085,13 @@
         <v>20009416.33521849</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
-      </c>
-      <c r="I864" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I864" t="n">
+        <v>3.572</v>
+      </c>
       <c r="J864" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K864" t="inlineStr">
         <is>
@@ -29200,11 +29126,13 @@
         <v>19939330.23521849</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
-      </c>
-      <c r="I865" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I865" t="n">
+        <v>3.577</v>
+      </c>
       <c r="J865" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K865" t="inlineStr">
         <is>
@@ -29239,11 +29167,13 @@
         <v>20018928.02021849</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
-      </c>
-      <c r="I866" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I866" t="n">
+        <v>3.573</v>
+      </c>
       <c r="J866" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K866" t="inlineStr">
         <is>
@@ -29278,11 +29208,13 @@
         <v>19957352.37521849</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
-      </c>
-      <c r="I867" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I867" t="n">
+        <v>3.576</v>
+      </c>
       <c r="J867" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K867" t="inlineStr">
         <is>
@@ -29317,11 +29249,13 @@
         <v>20036449.54521849</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
-      </c>
-      <c r="I868" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I868" t="n">
+        <v>3.571</v>
+      </c>
       <c r="J868" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K868" t="inlineStr">
         <is>
@@ -29356,11 +29290,13 @@
         <v>20076006.22661849</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
-      </c>
-      <c r="I869" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I869" t="n">
+        <v>3.573</v>
+      </c>
       <c r="J869" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K869" t="inlineStr">
         <is>
@@ -29395,11 +29331,13 @@
         <v>20004918.8966185</v>
       </c>
       <c r="H870" t="n">
-        <v>0</v>
-      </c>
-      <c r="I870" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I870" t="n">
+        <v>3.578</v>
+      </c>
       <c r="J870" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K870" t="inlineStr">
         <is>
@@ -29434,11 +29372,13 @@
         <v>19948349.4016185</v>
       </c>
       <c r="H871" t="n">
-        <v>0</v>
-      </c>
-      <c r="I871" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I871" t="n">
+        <v>3.572</v>
+      </c>
       <c r="J871" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K871" t="inlineStr">
         <is>
@@ -29473,11 +29413,13 @@
         <v>19948349.4016185</v>
       </c>
       <c r="H872" t="n">
-        <v>0</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>3.571</v>
+      </c>
       <c r="J872" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K872" t="inlineStr">
         <is>
@@ -29512,11 +29454,13 @@
         <v>19988899.2166185</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>3.571</v>
+      </c>
       <c r="J873" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K873" t="inlineStr">
         <is>
@@ -29551,11 +29495,13 @@
         <v>19917311.2716185</v>
       </c>
       <c r="H874" t="n">
-        <v>0</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>3.576</v>
+      </c>
       <c r="J874" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K874" t="inlineStr">
         <is>
@@ -29590,11 +29536,13 @@
         <v>19959863.5466185</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>3.571</v>
+      </c>
       <c r="J875" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K875" t="inlineStr">
         <is>
@@ -29629,11 +29577,13 @@
         <v>19268132.04571849</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>3.573</v>
+      </c>
       <c r="J876" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K876" t="inlineStr">
         <is>
@@ -29674,7 +29624,7 @@
         <v>3.541</v>
       </c>
       <c r="J877" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K877" t="inlineStr">
         <is>
@@ -29715,7 +29665,7 @@
         <v>3.568</v>
       </c>
       <c r="J878" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K878" t="inlineStr">
         <is>
@@ -29756,7 +29706,7 @@
         <v>3.567</v>
       </c>
       <c r="J879" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K879" t="inlineStr">
         <is>
@@ -29797,7 +29747,7 @@
         <v>3.568</v>
       </c>
       <c r="J880" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K880" t="inlineStr">
         <is>
@@ -29838,7 +29788,7 @@
         <v>3.547</v>
       </c>
       <c r="J881" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K881" t="inlineStr">
         <is>
@@ -29879,7 +29829,7 @@
         <v>3.554</v>
       </c>
       <c r="J882" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K882" t="inlineStr">
         <is>
@@ -29920,7 +29870,7 @@
         <v>3.552</v>
       </c>
       <c r="J883" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K883" t="inlineStr">
         <is>
@@ -29961,7 +29911,7 @@
         <v>3.557</v>
       </c>
       <c r="J884" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K884" t="inlineStr">
         <is>
@@ -30002,7 +29952,7 @@
         <v>3.564</v>
       </c>
       <c r="J885" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K885" t="inlineStr">
         <is>
@@ -30043,7 +29993,7 @@
         <v>3.559</v>
       </c>
       <c r="J886" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K886" t="inlineStr">
         <is>
@@ -30084,7 +30034,7 @@
         <v>3.557</v>
       </c>
       <c r="J887" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K887" t="inlineStr">
         <is>
@@ -30125,7 +30075,7 @@
         <v>3.566</v>
       </c>
       <c r="J888" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K888" t="inlineStr">
         <is>
@@ -30166,7 +30116,7 @@
         <v>3.556</v>
       </c>
       <c r="J889" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K889" t="inlineStr">
         <is>
@@ -30207,7 +30157,7 @@
         <v>3.561</v>
       </c>
       <c r="J890" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K890" t="inlineStr">
         <is>
@@ -30248,7 +30198,7 @@
         <v>3.548</v>
       </c>
       <c r="J891" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K891" t="inlineStr">
         <is>
@@ -30289,7 +30239,7 @@
         <v>3.56</v>
       </c>
       <c r="J892" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K892" t="inlineStr">
         <is>
@@ -30330,7 +30280,7 @@
         <v>3.555</v>
       </c>
       <c r="J893" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K893" t="inlineStr">
         <is>
@@ -30371,7 +30321,7 @@
         <v>3.568</v>
       </c>
       <c r="J894" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K894" t="inlineStr">
         <is>
@@ -30412,7 +30362,7 @@
         <v>3.546</v>
       </c>
       <c r="J895" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K895" t="inlineStr">
         <is>
@@ -30453,7 +30403,7 @@
         <v>3.542</v>
       </c>
       <c r="J896" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K896" t="inlineStr">
         <is>
@@ -30494,7 +30444,7 @@
         <v>3.56</v>
       </c>
       <c r="J897" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K897" t="inlineStr">
         <is>
@@ -30535,7 +30485,7 @@
         <v>3.56</v>
       </c>
       <c r="J898" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K898" t="inlineStr">
         <is>
@@ -30576,7 +30526,7 @@
         <v>3.542</v>
       </c>
       <c r="J899" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K899" t="inlineStr">
         <is>
@@ -30617,7 +30567,7 @@
         <v>3.552</v>
       </c>
       <c r="J900" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K900" t="inlineStr">
         <is>
@@ -30658,7 +30608,7 @@
         <v>3.564</v>
       </c>
       <c r="J901" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K901" t="inlineStr">
         <is>
@@ -30699,7 +30649,7 @@
         <v>3.564</v>
       </c>
       <c r="J902" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K902" t="inlineStr">
         <is>
@@ -30740,7 +30690,7 @@
         <v>3.561</v>
       </c>
       <c r="J903" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K903" t="inlineStr">
         <is>
@@ -30781,7 +30731,7 @@
         <v>3.56</v>
       </c>
       <c r="J904" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K904" t="inlineStr">
         <is>
@@ -30822,7 +30772,7 @@
         <v>3.557</v>
       </c>
       <c r="J905" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K905" t="inlineStr">
         <is>
@@ -30863,7 +30813,7 @@
         <v>3.558</v>
       </c>
       <c r="J906" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K906" t="inlineStr">
         <is>
@@ -30904,7 +30854,7 @@
         <v>3.563</v>
       </c>
       <c r="J907" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K907" t="inlineStr">
         <is>
@@ -30945,7 +30895,7 @@
         <v>3.556</v>
       </c>
       <c r="J908" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K908" t="inlineStr">
         <is>
@@ -30986,7 +30936,7 @@
         <v>3.562</v>
       </c>
       <c r="J909" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K909" t="inlineStr">
         <is>
@@ -31027,7 +30977,7 @@
         <v>3.558</v>
       </c>
       <c r="J910" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K910" t="inlineStr">
         <is>
@@ -31068,7 +31018,7 @@
         <v>3.564</v>
       </c>
       <c r="J911" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K911" t="inlineStr">
         <is>
@@ -31109,7 +31059,7 @@
         <v>3.563</v>
       </c>
       <c r="J912" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K912" t="inlineStr">
         <is>
@@ -31150,7 +31100,7 @@
         <v>3.565</v>
       </c>
       <c r="J913" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K913" t="inlineStr">
         <is>
@@ -31191,7 +31141,7 @@
         <v>3.565</v>
       </c>
       <c r="J914" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K914" t="inlineStr">
         <is>
@@ -31232,7 +31182,7 @@
         <v>3.565</v>
       </c>
       <c r="J915" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K915" t="inlineStr">
         <is>
@@ -31273,7 +31223,7 @@
         <v>3.565</v>
       </c>
       <c r="J916" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K916" t="inlineStr">
         <is>
@@ -31314,7 +31264,7 @@
         <v>3.563</v>
       </c>
       <c r="J917" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K917" t="inlineStr">
         <is>
@@ -31355,7 +31305,7 @@
         <v>3.576</v>
       </c>
       <c r="J918" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K918" t="inlineStr">
         <is>
@@ -31396,7 +31346,7 @@
         <v>3.565</v>
       </c>
       <c r="J919" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K919" t="inlineStr">
         <is>
@@ -31437,7 +31387,7 @@
         <v>3.577</v>
       </c>
       <c r="J920" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K920" t="inlineStr">
         <is>
@@ -31472,11 +31422,13 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H921" t="n">
-        <v>0</v>
-      </c>
-      <c r="I921" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I921" t="n">
+        <v>3.578</v>
+      </c>
       <c r="J921" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K921" t="inlineStr">
         <is>
@@ -31511,11 +31463,13 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H922" t="n">
-        <v>0</v>
-      </c>
-      <c r="I922" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I922" t="n">
+        <v>3.579</v>
+      </c>
       <c r="J922" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K922" t="inlineStr">
         <is>
@@ -31550,11 +31504,13 @@
         <v>19681300.8713185</v>
       </c>
       <c r="H923" t="n">
-        <v>0</v>
-      </c>
-      <c r="I923" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I923" t="n">
+        <v>3.579</v>
+      </c>
       <c r="J923" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K923" t="inlineStr">
         <is>
@@ -31589,11 +31545,13 @@
         <v>19846698.6632185</v>
       </c>
       <c r="H924" t="n">
-        <v>0</v>
-      </c>
-      <c r="I924" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I924" t="n">
+        <v>3.579</v>
+      </c>
       <c r="J924" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K924" t="inlineStr">
         <is>
@@ -31628,11 +31586,13 @@
         <v>19891754.0132185</v>
       </c>
       <c r="H925" t="n">
-        <v>0</v>
-      </c>
-      <c r="I925" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>3.628</v>
+      </c>
       <c r="J925" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K925" t="inlineStr">
         <is>
@@ -31667,11 +31627,13 @@
         <v>19850202.9682185</v>
       </c>
       <c r="H926" t="n">
-        <v>0</v>
-      </c>
-      <c r="I926" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>3.633</v>
+      </c>
       <c r="J926" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K926" t="inlineStr">
         <is>
@@ -31706,11 +31668,13 @@
         <v>19725413.0941185</v>
       </c>
       <c r="H927" t="n">
-        <v>0</v>
-      </c>
-      <c r="I927" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>3.627</v>
+      </c>
       <c r="J927" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K927" t="inlineStr">
         <is>
@@ -31745,11 +31709,13 @@
         <v>19787489.3541185</v>
       </c>
       <c r="H928" t="n">
-        <v>0</v>
-      </c>
-      <c r="I928" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>3.59</v>
+      </c>
       <c r="J928" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K928" t="inlineStr">
         <is>
@@ -31784,11 +31750,13 @@
         <v>19788043.8451185</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
-      </c>
-      <c r="I929" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>3.597</v>
+      </c>
       <c r="J929" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K929" t="inlineStr">
         <is>
@@ -31823,11 +31791,13 @@
         <v>19685918.3851185</v>
       </c>
       <c r="H930" t="n">
-        <v>0</v>
-      </c>
-      <c r="I930" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I930" t="n">
+        <v>3.63</v>
+      </c>
       <c r="J930" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K930" t="inlineStr">
         <is>
@@ -31862,11 +31832,13 @@
         <v>19685918.3851185</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>3.628</v>
+      </c>
       <c r="J931" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K931" t="inlineStr">
         <is>
@@ -31901,11 +31873,13 @@
         <v>19768868.0141185</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>3.628</v>
+      </c>
       <c r="J932" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K932" t="inlineStr">
         <is>
@@ -31940,11 +31914,13 @@
         <v>19607879.8512185</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>3.636</v>
+      </c>
       <c r="J933" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K933" t="inlineStr">
         <is>
@@ -31979,11 +31955,13 @@
         <v>19756562.5062185</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>3.63</v>
+      </c>
       <c r="J934" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K934" t="inlineStr">
         <is>
@@ -32018,11 +31996,13 @@
         <v>19710005.3112185</v>
       </c>
       <c r="H935" t="n">
-        <v>0</v>
-      </c>
-      <c r="I935" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I935" t="n">
+        <v>3.639</v>
+      </c>
       <c r="J935" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K935" t="inlineStr">
         <is>
@@ -32057,11 +32037,13 @@
         <v>19572836.8012185</v>
       </c>
       <c r="H936" t="n">
-        <v>0</v>
-      </c>
-      <c r="I936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I936" t="n">
+        <v>3.622</v>
+      </c>
       <c r="J936" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K936" t="inlineStr">
         <is>
@@ -32096,11 +32078,13 @@
         <v>19604375.5462185</v>
       </c>
       <c r="H937" t="n">
-        <v>0</v>
-      </c>
-      <c r="I937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I937" t="n">
+        <v>3.621</v>
+      </c>
       <c r="J937" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K937" t="inlineStr">
         <is>
@@ -32139,7 +32123,7 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K938" t="inlineStr">
         <is>
@@ -32174,11 +32158,13 @@
         <v>19596365.7062185</v>
       </c>
       <c r="H939" t="n">
-        <v>0</v>
-      </c>
-      <c r="I939" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I939" t="n">
+        <v>3.621</v>
+      </c>
       <c r="J939" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K939" t="inlineStr">
         <is>
@@ -32213,11 +32199,13 @@
         <v>19531786.3712185</v>
       </c>
       <c r="H940" t="n">
-        <v>0</v>
-      </c>
-      <c r="I940" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I940" t="n">
+        <v>3.638</v>
+      </c>
       <c r="J940" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K940" t="inlineStr">
         <is>
@@ -32252,11 +32240,13 @@
         <v>19634803.1382185</v>
       </c>
       <c r="H941" t="n">
-        <v>0</v>
-      </c>
-      <c r="I941" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I941" t="n">
+        <v>3.636</v>
+      </c>
       <c r="J941" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K941" t="inlineStr">
         <is>
@@ -32295,7 +32285,7 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K942" t="inlineStr">
         <is>
@@ -32334,7 +32324,7 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K943" t="inlineStr">
         <is>
@@ -32373,7 +32363,7 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K944" t="inlineStr">
         <is>
@@ -32412,7 +32402,7 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K945" t="inlineStr">
         <is>
@@ -32451,7 +32441,7 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K946" t="inlineStr">
         <is>
@@ -32490,7 +32480,7 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K947" t="inlineStr">
         <is>
@@ -32529,7 +32519,7 @@
       </c>
       <c r="I948" t="inlineStr"/>
       <c r="J948" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K948" t="inlineStr">
         <is>
@@ -32568,7 +32558,7 @@
       </c>
       <c r="I949" t="inlineStr"/>
       <c r="J949" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K949" t="inlineStr">
         <is>
@@ -32607,7 +32597,7 @@
       </c>
       <c r="I950" t="inlineStr"/>
       <c r="J950" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K950" t="inlineStr">
         <is>
@@ -32646,7 +32636,7 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K951" t="inlineStr">
         <is>
@@ -32685,7 +32675,7 @@
       </c>
       <c r="I952" t="inlineStr"/>
       <c r="J952" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K952" t="inlineStr">
         <is>
@@ -32724,7 +32714,7 @@
       </c>
       <c r="I953" t="inlineStr"/>
       <c r="J953" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K953" t="inlineStr">
         <is>
@@ -32763,7 +32753,7 @@
       </c>
       <c r="I954" t="inlineStr"/>
       <c r="J954" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K954" t="inlineStr">
         <is>
@@ -32802,7 +32792,7 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K955" t="inlineStr">
         <is>
@@ -32841,7 +32831,7 @@
       </c>
       <c r="I956" t="inlineStr"/>
       <c r="J956" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K956" t="inlineStr">
         <is>
@@ -32880,7 +32870,7 @@
       </c>
       <c r="I957" t="inlineStr"/>
       <c r="J957" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K957" t="inlineStr">
         <is>
@@ -32919,7 +32909,7 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K958" t="inlineStr">
         <is>
@@ -32958,7 +32948,7 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K959" t="inlineStr">
         <is>
@@ -32997,7 +32987,7 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K960" t="inlineStr">
         <is>
@@ -33036,7 +33026,7 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K961" t="inlineStr">
         <is>
@@ -33075,7 +33065,7 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K962" t="inlineStr">
         <is>
@@ -33114,7 +33104,7 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K963" t="inlineStr">
         <is>
@@ -33153,7 +33143,7 @@
       </c>
       <c r="I964" t="inlineStr"/>
       <c r="J964" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K964" t="inlineStr">
         <is>
@@ -33192,7 +33182,7 @@
       </c>
       <c r="I965" t="inlineStr"/>
       <c r="J965" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K965" t="inlineStr">
         <is>
@@ -33231,7 +33221,7 @@
       </c>
       <c r="I966" t="inlineStr"/>
       <c r="J966" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K966" t="inlineStr">
         <is>
@@ -33270,7 +33260,7 @@
       </c>
       <c r="I967" t="inlineStr"/>
       <c r="J967" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K967" t="inlineStr">
         <is>
@@ -33309,7 +33299,7 @@
       </c>
       <c r="I968" t="inlineStr"/>
       <c r="J968" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K968" t="inlineStr">
         <is>
@@ -33348,7 +33338,7 @@
       </c>
       <c r="I969" t="inlineStr"/>
       <c r="J969" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K969" t="inlineStr">
         <is>
@@ -33387,7 +33377,7 @@
       </c>
       <c r="I970" t="inlineStr"/>
       <c r="J970" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K970" t="inlineStr">
         <is>
@@ -33426,7 +33416,7 @@
       </c>
       <c r="I971" t="inlineStr"/>
       <c r="J971" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K971" t="inlineStr">
         <is>
@@ -33465,7 +33455,7 @@
       </c>
       <c r="I972" t="inlineStr"/>
       <c r="J972" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K972" t="inlineStr">
         <is>
@@ -33504,7 +33494,7 @@
       </c>
       <c r="I973" t="inlineStr"/>
       <c r="J973" t="n">
-        <v>3.55</v>
+        <v>3.553</v>
       </c>
       <c r="K973" t="inlineStr">
         <is>
